--- a/biology/Zoologie/Ariadna_pilifera/Ariadna_pilifera.xlsx
+++ b/biology/Zoologie/Ariadna_pilifera/Ariadna_pilifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna pilifera est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna pilifera est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Arizona et au Mexique au Chihuahua, au Durango, au Tamaulipas, au San Luis Potosí, au Nayarit, au Colima, au Michoacán, au Guanajuato, en Hidalgo, au Veracruz, au Puebla, au Morelos, au Guerrero et Oaxaca[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Arizona et au Mexique au Chihuahua, au Durango, au Tamaulipas, au San Luis Potosí, au Nayarit, au Colima, au Michoacán, au Guanajuato, en Hidalgo, au Veracruz, au Puebla, au Morelos, au Guerrero et Oaxaca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 8,36 mm et la femelle 14,24 mm, les femelles mesurent de 11,65 à 18,48 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Giroti et Brescovit en 2018 mesure 8,36 mm et la femelle 14,24 mm, les femelles mesurent de 11,65 à 18,48 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1898 : Arachnida. Araneida. Biologia Centrali-Americana, Zoology. London, vol. 1, p. 233-288 (texte intégral).</t>
         </is>
